--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA01639-D349-452E-9C44-8D70B0943313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EDACF-17D3-4B52-B0AF-FBEF6F34732B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>This line is skipped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -348,28 +343,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
